--- a/20200305_V1.xlsx
+++ b/20200305_V1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlightTest\Desktop\PFDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8acb37244eba5cb0/Documenten/TestFlight/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_34D9D34CDEE8F90DB73A411681F4760F7DAD4FE4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -310,7 +311,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -700,7 +701,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -744,7 +751,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -819,6 +826,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -854,6 +878,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,28 +1070,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1105,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1078,13 +1119,13 @@
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1103,7 +1144,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1114,7 +1155,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1125,7 +1166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1136,7 +1177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1147,7 +1188,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1158,7 +1199,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1169,7 +1210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1180,7 +1221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1191,7 +1232,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1199,12 +1240,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1244,7 +1285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +1314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1303,7 +1344,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1333,7 +1374,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1363,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1393,7 +1434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1423,7 +1464,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1453,7 +1494,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1467,23 +1508,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1515,7 +1556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1544,7 +1585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1558,7 +1599,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1572,7 +1613,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1586,7 +1627,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1600,7 +1641,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1614,7 +1655,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1628,7 +1669,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1642,17 +1683,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1660,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -1739,7 +1780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1778,7 +1819,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1817,7 +1858,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1856,7 +1897,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1895,7 +1936,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1934,7 +1975,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1973,7 +2014,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2012,17 +2053,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2030,7 +2071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -2044,7 +2085,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2085,7 +2126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -2123,7 +2164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2158,7 +2199,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2193,17 +2234,17 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -2214,7 +2255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -2225,7 +2266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +2286,7 @@
         <v>3.7453703703703704E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
